--- a/data/READINGHABITS.xlsx
+++ b/data/READINGHABITS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F238E292-3ADB-4283-84D5-6D5BA07402C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972E5514-5911-456B-BA2A-A911EEA7FDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CC8AAEA8-CC96-40D5-AA83-024CF7F97404}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>curl up with a book</t>
   </si>
@@ -72,9 +72,6 @@
     <t>skimming</t>
   </si>
   <si>
-    <t>đọc nhanh lấy thông tin chung/ ý chính</t>
-  </si>
-  <si>
     <t>scanning</t>
   </si>
   <si>
@@ -102,10 +99,281 @@
     <t>Từ vựng / Cụm từ (English)</t>
   </si>
   <si>
-    <t>Nghĩa / Giải thích (Vietnamese/English)</t>
-  </si>
-  <si>
-    <t>Examples</t>
+    <t>Nghĩa (Vietnamese)</t>
+  </si>
+  <si>
+    <t>Examples (Ví dụ)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I love to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>curl up with a book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on rainy days.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mothers often </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>read aloud to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> their children at night.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>listen to audio books</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> while driving to work.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Doing puzzles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is good for your brain.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Most people </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>read news articles online</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> nowadays.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I usually just </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>skim through a newspaper</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in the morning.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is convenient to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>read e-books</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> on a tablet.</t>
+    </r>
+  </si>
+  <si>
+    <t>đọc nhanh lấy ý chính</t>
+  </si>
+  <si>
+    <r>
+      <t>Skimming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> helps you get the general idea quickly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Try </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>scanning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the text for the specific date.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reading requires a lot of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>concentration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I get </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>distracted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> by noise easily.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bombarded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> with advertisements every day.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -121,17 +389,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,17 +419,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -169,13 +437,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,134 +762,158 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:C13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
